--- a/conditions/SocaMRIConditions_Version1A_Run1.xlsx
+++ b/conditions/SocaMRIConditions_Version1A_Run1.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/Rejection_induction/conditions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,9 +50,6 @@
     <t>stim/EMImale21-2happy_edited.jpg</t>
   </si>
   <si>
-    <t>stim/Female_Teen_Smile_Creative_Commons_WikiMedia_40_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/Female_Creative_Commons_Stockvault_16.jpg</t>
   </si>
   <si>
@@ -60,9 +65,6 @@
     <t>stim/Female_Creative_Commons_Stockvault_18.jpg</t>
   </si>
   <si>
-    <t>stim/Female_Teen_Smile_CreativeCommons_Flickr_7_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/EMBfemale21-4happy_Edited.jpg</t>
   </si>
   <si>
@@ -102,12 +104,6 @@
     <t>stim/Flicker_2_cc30_edited.jpg</t>
   </si>
   <si>
-    <t>stim/Female_Teen_Smile_Creative_Commons_WikiMedia_37_edited.jpg</t>
-  </si>
-  <si>
-    <t>stim/Female_Teen_Smile_CreativeCommons_Flickr_6_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/Silk_Rudick_pitt-2_edited.jpg</t>
   </si>
   <si>
@@ -123,18 +119,12 @@
     <t>stim/WImale23happy_Edited.jpg</t>
   </si>
   <si>
-    <t>stim/F27NS_5745_ChEFS_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/58_smile_edited.jpg</t>
   </si>
   <si>
     <t>stim/Silk_Rudick_pitt-6_edited.jpg</t>
   </si>
   <si>
-    <t>stim/Female_Teen_Smile_Creative_Commons_WikiMedia_32_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/Silk_Rudick_F22_edited.jpg</t>
   </si>
   <si>
@@ -147,13 +137,31 @@
     <t>stim/edited_63_smile.jpg</t>
   </si>
   <si>
-    <t>stim/Male_Teen_Smile_CreativeCommons_Flickr_28_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/cc_22_edited.jpg</t>
   </si>
   <si>
-    <t>stim/Female_Teen_Smile_CreativeCommons_Flickr_48_edited.jpg</t>
+    <t>stim/Silk_Rudick_F25_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/Silk_Stroud_1189_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/Silk_Stroud_1190_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WIfemale22happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WBfemale19happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WWfemale22-2happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WWfemale22happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WWmale23-6happy_edited.jpg</t>
   </si>
 </sst>
 </file>
@@ -210,7 +218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -232,14 +240,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -250,6 +261,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -260,10 +272,16 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -589,19 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -611,42 +630,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -655,412 +674,408 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B161">
-    <sortCondition ref="B2:B161"/>
+  <sortState ref="F1:F269">
+    <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/conditions/SocaMRIConditions_Version1A_Run1.xlsx
+++ b/conditions/SocaMRIConditions_Version1A_Run1.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/Rejection_induction/conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\Rejection_induction\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1215" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Cue</t>
   </si>
@@ -77,9 +74,6 @@
     <t>stim/pitt-20_edited.jpg</t>
   </si>
   <si>
-    <t>stim/cc_11_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/Male_Creative_Commons_Stockvault_1.jpg</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>stim/Silk_Rudick_pitt-2_edited.jpg</t>
   </si>
   <si>
-    <t>stim/WWmale23-5happy_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/cc_9_edited.jpg</t>
   </si>
   <si>
@@ -161,14 +152,17 @@
     <t>stim/WWfemale22happy_edited.jpg</t>
   </si>
   <si>
-    <t>stim/WWmale23-6happy_edited.jpg</t>
+    <t>stim/cc_2_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WWmale23-3happy_edited.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -610,16 +607,16 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,9 +627,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -641,9 +638,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -652,9 +649,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -663,9 +660,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -674,9 +671,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -685,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -696,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -707,7 +704,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -718,9 +715,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -729,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -740,9 +737,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -751,9 +748,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -762,9 +759,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -773,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -784,7 +781,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -795,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -806,9 +803,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -817,9 +814,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -828,9 +825,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -839,9 +836,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -850,9 +847,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -861,9 +858,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -872,9 +869,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -883,9 +880,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -894,9 +891,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -905,9 +902,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -916,9 +913,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -927,9 +924,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -938,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -950,9 +947,9 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -961,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -972,9 +969,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -983,9 +980,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -994,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -1005,9 +1002,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1016,9 +1013,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1027,9 +1024,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1038,9 +1035,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1049,7 +1046,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1060,9 +1057,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>

--- a/conditions/SocaMRIConditions_Version1A_Run1.xlsx
+++ b/conditions/SocaMRIConditions_Version1A_Run1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Cue</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>stim/WWmale23-3happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/WWmale21-3happy_edited.jpg</t>
   </si>
 </sst>
 </file>
@@ -606,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
